--- a/db/Хастл Элементы.xlsx
+++ b/db/Хастл Элементы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PROGRAMMING\PROJECTS\danceHustle\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C174817-30BF-424C-BA94-F0E18B782E78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77DA660-8DB1-4522-A8BF-E220395C1646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>Простые движения без сменок:</t>
   </si>
@@ -140,21 +140,9 @@
     <t>Перехват в привет</t>
   </si>
   <si>
-    <t>0601</t>
-  </si>
-  <si>
-    <t>0701</t>
-  </si>
-  <si>
-    <t>0801</t>
-  </si>
-  <si>
     <t>Заход в американку на прямых руках</t>
   </si>
   <si>
-    <t>0901</t>
-  </si>
-  <si>
     <t>Заход в американку в привете</t>
   </si>
   <si>
@@ -188,36 +176,15 @@
     <t>Заход в Раскрытие</t>
   </si>
   <si>
-    <t>9601</t>
-  </si>
-  <si>
     <t>Заход в обычную американку</t>
   </si>
   <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>9701</t>
-  </si>
-  <si>
-    <t>Выход из обычной американки</t>
-  </si>
-  <si>
-    <t>9801</t>
-  </si>
-  <si>
     <t>Выход из американки на прямых руках</t>
   </si>
   <si>
-    <t>9901</t>
-  </si>
-  <si>
     <t>Выход из американки в привете</t>
   </si>
   <si>
-    <t>8101</t>
-  </si>
-  <si>
     <t>Выход из променада</t>
   </si>
   <si>
@@ -359,9 +326,6 @@
     <t>Выход из Раскрытия в поддержку в противовесе через Йо-Йо</t>
   </si>
   <si>
-    <t>02001, 03001</t>
-  </si>
-  <si>
     <t>95001, 95101, 95201</t>
   </si>
   <si>
@@ -384,6 +348,66 @@
   </si>
   <si>
     <t>95004</t>
+  </si>
+  <si>
+    <t>06001</t>
+  </si>
+  <si>
+    <t>96001</t>
+  </si>
+  <si>
+    <t>07001</t>
+  </si>
+  <si>
+    <t>97001</t>
+  </si>
+  <si>
+    <t>08001</t>
+  </si>
+  <si>
+    <t>98001</t>
+  </si>
+  <si>
+    <t>09001</t>
+  </si>
+  <si>
+    <t>99001</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>81001</t>
+  </si>
+  <si>
+    <t>97101</t>
+  </si>
+  <si>
+    <t>Выход из обычной американки в противовес</t>
+  </si>
+  <si>
+    <t>Выход из обычной американки на базовый шаг</t>
+  </si>
+  <si>
+    <t>04001, 09001, 01001</t>
+  </si>
+  <si>
+    <t>02001, 03001, 05001, 06001, 07001, 08001, 11001</t>
+  </si>
+  <si>
+    <t>96002</t>
+  </si>
+  <si>
+    <t>96003</t>
+  </si>
+  <si>
+    <t>96004</t>
+  </si>
+  <si>
+    <t>96005</t>
+  </si>
+  <si>
+    <t>96006</t>
   </si>
 </sst>
 </file>
@@ -531,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -542,7 +566,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -551,7 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -946,16 +968,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EBF1C6-93DA-4C53-84BE-87E326A9FB2F}">
-  <dimension ref="B2:I183"/>
+  <dimension ref="B2:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -984,13 +1006,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
@@ -998,61 +1020,61 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1060,13 +1082,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1074,556 +1096,604 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="31">
+        <v>93001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="33">
-        <v>93001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="13"/>
+      <c r="B24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="13"/>
+      <c r="B25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>87</v>
+      <c r="B28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
+      <c r="C39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="19"/>
+      <c r="B52" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="13"/>
+      <c r="B53" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="13"/>
+      <c r="B54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="13"/>
+      <c r="B55" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="13"/>
+      <c r="B56" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="13"/>
+      <c r="B57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="28"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="14"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
+      <c r="B83" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" t="s">
-        <v>77</v>
-      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="5"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
-      <c r="C86" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
@@ -1906,6 +1976,15 @@
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/Хастл Элементы.xlsx
+++ b/db/Хастл Элементы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PROGRAMMING\PROJECTS\danceHustle\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77DA660-8DB1-4522-A8BF-E220395C1646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951F546-CB2B-4FFD-B67D-EF6FB2980645}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>Простые движения без сменок:</t>
   </si>
@@ -125,9 +125,6 @@
     <t>previousElements</t>
   </si>
   <si>
-    <t>Базовый шаг</t>
-  </si>
-  <si>
     <t>Спин Поворот</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Сменка Вращение партнерши</t>
   </si>
   <si>
-    <t>Перехват в привет</t>
-  </si>
-  <si>
     <t>Заход в американку на прямых руках</t>
   </si>
   <si>
@@ -149,33 +143,15 @@
     <t>Заход в веревочку</t>
   </si>
   <si>
-    <t>Нижняя сменка (заход в привет)</t>
-  </si>
-  <si>
-    <t>Заход в корзинку</t>
-  </si>
-  <si>
-    <t>Смена положений</t>
-  </si>
-  <si>
     <t>Шаги в корзинке</t>
   </si>
   <si>
     <t>Поддержка в корзинке</t>
   </si>
   <si>
-    <t>Выход из корзинки  в базовый шаг с пролазом партнерши</t>
-  </si>
-  <si>
-    <t>Заход в обратную теневую</t>
-  </si>
-  <si>
     <t>Выход из обратной теневой</t>
   </si>
   <si>
-    <t>Заход в Раскрытие</t>
-  </si>
-  <si>
     <t>Заход в обычную американку</t>
   </si>
   <si>
@@ -185,12 +161,6 @@
     <t>Выход из американки в привете</t>
   </si>
   <si>
-    <t>Выход из променада</t>
-  </si>
-  <si>
-    <t>Выход из корзинки</t>
-  </si>
-  <si>
     <t>Обратная теневая с разножкой</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
     <t>Шаги в обратной теневой</t>
   </si>
   <si>
-    <t>Заход в Раскрытие с вращением партнерши</t>
-  </si>
-  <si>
     <t>Шарфики в раскрытии</t>
   </si>
   <si>
@@ -215,9 +182,6 @@
     <t>Йо-Йо</t>
   </si>
   <si>
-    <t>Закрытие с прогибом партнерши</t>
-  </si>
-  <si>
     <t>Бампер</t>
   </si>
   <si>
@@ -248,9 +212,6 @@
     <t>Сложная 3</t>
   </si>
   <si>
-    <t>Выход из Раскрытия в выход из американки: с приседанием</t>
-  </si>
-  <si>
     <t>01001</t>
   </si>
   <si>
@@ -317,9 +278,6 @@
     <t>95101</t>
   </si>
   <si>
-    <t>Выход из Раскрытия в бампер</t>
-  </si>
-  <si>
     <t>95201</t>
   </si>
   <si>
@@ -408,6 +366,81 @@
   </si>
   <si>
     <t>96006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американка с накидыванием руки на партнера </t>
+  </si>
+  <si>
+    <t>Американка с накидыванием на партнёршу</t>
+  </si>
+  <si>
+    <t>07002</t>
+  </si>
+  <si>
+    <t>07003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корзинка с обходом партнёрши </t>
+  </si>
+  <si>
+    <t>03006</t>
+  </si>
+  <si>
+    <t>Сменка с дагом (врата)</t>
+  </si>
+  <si>
+    <t>Базовый шаг (БШ)</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Перекрестный хват (Нижняя сменка)</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Корзинка</t>
+  </si>
+  <si>
+    <t>Корзинка =&gt; БШ</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Обратная теневая</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Раскрытие</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Раскрытие с вращением партнерши</t>
+  </si>
+  <si>
+    <t>Корзинка =&gt; БШ с пролазом партнерши (тоннель)</t>
+  </si>
+  <si>
+    <t>Смена положений в корзинке</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Перекрестный хват (Перехват в привет)</t>
+  </si>
+  <si>
+    <t>Раскрытие =&gt; Бампер</t>
+  </si>
+  <si>
+    <t>Раскрытие =&gt; Выход из американки (С приседанием)</t>
+  </si>
+  <si>
+    <t>Раскрытие =&gt; Выход из американки  (С прогибом партнерши)</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Променад</t>
+  </si>
+  <si>
+    <t>БШ =&gt; Променад (С дагом)</t>
+  </si>
+  <si>
+    <t>Променад =&gt; БШ</t>
+  </si>
+  <si>
+    <t>Выход с бочкой из американки</t>
+  </si>
+  <si>
+    <t>97002</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EBF1C6-93DA-4C53-84BE-87E326A9FB2F}">
-  <dimension ref="B2:I186"/>
+  <dimension ref="B2:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,13 +1039,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
@@ -1021,7 +1054,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>3</v>
@@ -1034,10 +1067,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7"/>
@@ -1047,10 +1080,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="7"/>
@@ -1060,10 +1093,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="7"/>
@@ -1072,619 +1105,644 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="31">
         <v>93001</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>101</v>
-      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="B32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="12"/>
+      <c r="B39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="B53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
+      <c r="B60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
+      <c r="B61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B62" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="B67" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>114</v>
-      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
+      <c r="B70" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
+      <c r="B73" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
+      <c r="B76" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>81</v>
-      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="12"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
+      <c r="B85" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="5"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="5"/>
-      <c r="C87" t="s">
-        <v>66</v>
-      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
@@ -1692,7 +1750,7 @@
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
@@ -1700,6 +1758,9 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
@@ -1985,6 +2046,12 @@
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
